--- a/biology/Zoologie/Conus_virgatus/Conus_virgatus.xlsx
+++ b/biology/Zoologie/Conus_virgatus/Conus_virgatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus virgatus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille varie entre 35 mm et 70 mm. La coquille plutôt étroite est blanc rosé, continuellement mais irrégulièrement striée longitudinalement de châtaigne[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille varie entre 35 mm et 70 mm. La coquille plutôt étroite est blanc rosé, continuellement mais irrégulièrement striée longitudinalement de châtaigne. 
 </t>
         </is>
       </c>
@@ -543,14 +557,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans l'océan Pacifique depuis la Baja California, au Mexique, jusqu'au nord du Pérou.
 			Conus virgatus Reeve, L.A., 1849
 			Conus virgatus Reeve, L.A., 1849
 			Conus virgatus Reeve, L.A., 1849
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve du Mexique au nord du Pérou. Elle est largement distribuée, considérée comme commune, n'est pas surexploitée et ne fait l'objet d'aucune menace connue. De plus, l'aire de répartition de cette espèce chevauche peut-être des aires marines protégées. Elle est classée dans la catégorie préoccupation mineure[2].
 </t>
         </is>
       </c>
@@ -576,15 +590,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve du Mexique au nord du Pérou. Elle est largement distribuée, considérée comme commune, n'est pas surexploitée et ne fait l'objet d'aucune menace connue. De plus, l'aire de répartition de cette espèce chevauche peut-être des aires marines protégées. Elle est classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_virgatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_virgatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus virgatus a été décrite pour la première fois en 1849 par l'éditeur et naturaliste britannique Lovell Augustus Reeve dans « Conchologia Iconica »[3],[4].
-Synonymes
-Conus (Dauciconus) virgatus Reeve, 1849 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus virgatus a été décrite pour la première fois en 1849 par l'éditeur et naturaliste britannique Lovell Augustus Reeve dans « Conchologia Iconica »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_virgatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_virgatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) virgatus Reeve, 1849 · appellation alternative
 Conus (Rhizoconus) cumingii Reeve, 1849 · appellation alternative
 Conus cumingii Reeve, 1849 · non accepté
 Conus signae Bartsch, 1937 · non accepté
